--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -135,49 +135,46 @@
     <t>1</t>
   </si>
   <si>
-    <t>aldrig</t>
+    <t>0</t>
   </si>
   <si>
     <t>Aldrig</t>
   </si>
   <si>
-    <t>altid</t>
+    <t>7</t>
   </si>
   <si>
     <t>Hele tiden</t>
   </si>
   <si>
-    <t>aktiv</t>
+    <t>4</t>
   </si>
   <si>
     <t>Fysisk aktiv</t>
   </si>
   <si>
-    <t>efter-toilet</t>
+    <t>5</t>
   </si>
   <si>
     <t>Efter toilet</t>
   </si>
   <si>
-    <t>inden-toilet</t>
-  </si>
-  <si>
     <t>Inden toilet</t>
   </si>
   <si>
-    <t>hoste</t>
+    <t>2</t>
   </si>
   <si>
     <t>Ved hoste</t>
   </si>
   <si>
-    <t>sover</t>
+    <t>3</t>
   </si>
   <si>
     <t>Sover</t>
   </si>
   <si>
-    <t>uden-grund</t>
+    <t>6</t>
   </si>
   <si>
     <t>Uden grund</t>
@@ -570,13 +567,13 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="D6" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -584,13 +581,13 @@
         <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="D7" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +595,13 @@
         <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="D8" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -612,13 +609,13 @@
         <v>39</v>
       </c>
       <c r="B9" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="D9" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
+++ b/fhir/CodeSystem-HaendelseIndtraeffer.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -135,46 +135,49 @@
     <t>1</t>
   </si>
   <si>
-    <t>0</t>
+    <t>aldrig</t>
   </si>
   <si>
     <t>Aldrig</t>
   </si>
   <si>
-    <t>7</t>
+    <t>altid</t>
   </si>
   <si>
     <t>Hele tiden</t>
   </si>
   <si>
-    <t>4</t>
+    <t>aktiv</t>
   </si>
   <si>
     <t>Fysisk aktiv</t>
   </si>
   <si>
-    <t>5</t>
+    <t>efter-toilet</t>
   </si>
   <si>
     <t>Efter toilet</t>
   </si>
   <si>
+    <t>inden-toilet</t>
+  </si>
+  <si>
     <t>Inden toilet</t>
   </si>
   <si>
-    <t>2</t>
+    <t>hoste</t>
   </si>
   <si>
     <t>Ved hoste</t>
   </si>
   <si>
-    <t>3</t>
+    <t>sover</t>
   </si>
   <si>
     <t>Sover</t>
   </si>
   <si>
-    <t>6</t>
+    <t>uden-grund</t>
   </si>
   <si>
     <t>Uden grund</t>
@@ -567,13 +570,13 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -581,13 +584,13 @@
         <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -595,13 +598,13 @@
         <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -609,13 +612,13 @@
         <v>39</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
